--- a/Configs/Character.xlsx
+++ b/Configs/Character.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
-    <sheet name="DialogCharaCfg" sheetId="1" r:id="rId1"/>
+    <sheet name="CharacterCfg" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="29">
   <si>
     <t>sn</t>
   </si>
@@ -35,7 +35,16 @@
     <t>name</t>
   </si>
   <si>
-    <t>iconName</t>
+    <t>headIcon</t>
+  </si>
+  <si>
+    <t>fullIcon</t>
+  </si>
+  <si>
+    <t>dialogBigIcon</t>
+  </si>
+  <si>
+    <t>dialogSmallIcon</t>
   </si>
   <si>
     <t>int</t>
@@ -1035,21 +1044,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="21.25" customWidth="1"/>
-    <col min="3" max="3" width="41.75" customWidth="1"/>
-    <col min="5" max="5" width="12.875" customWidth="1"/>
+    <col min="2" max="2" width="14.25" customWidth="1"/>
+    <col min="3" max="4" width="23.75" customWidth="1"/>
+    <col min="5" max="5" width="22.875" customWidth="1"/>
+    <col min="6" max="6" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1059,126 +1069,234 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>10001</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>10002</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>10003</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>10004</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>10005</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>10006</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>10007</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>10008</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>10009</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
